--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Fall.121119.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Fall.121119.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1979,12 +1979,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2231,12 +2231,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2357,12 +2357,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2525,12 +2525,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2903,12 +2903,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3197,12 +3197,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3365,12 +3365,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3533,12 +3533,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3953,12 +3953,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4163,12 +4163,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4205,12 +4205,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4583,12 +4583,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5423,12 +5423,12 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6137,12 +6137,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6263,12 +6263,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6893,12 +6893,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7359,12 +7359,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7611,12 +7611,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7863,12 +7863,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8409,12 +8409,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8451,12 +8451,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8997,12 +8997,12 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9039,12 +9039,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9123,12 +9123,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9165,12 +9165,12 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9417,12 +9417,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9543,12 +9543,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9879,12 +9879,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10131,12 +10131,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10215,12 +10215,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10383,12 +10383,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10593,12 +10593,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10635,12 +10635,12 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10719,12 +10719,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11139,12 +11139,12 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11349,12 +11349,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11433,12 +11433,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12021,12 +12021,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12487,12 +12487,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12571,12 +12571,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12827,12 +12827,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13293,12 +13293,12 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13335,12 +13335,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13419,12 +13419,12 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13461,12 +13461,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
